--- a/bin/data.xlsx
+++ b/bin/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20705" windowHeight="7457" activeTab="5"/>
+    <workbookView windowWidth="20705" windowHeight="8185" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="40">
   <si>
     <t>id_admin</t>
   </si>
@@ -76,46 +76,55 @@
     <t>jadwal(pagi)</t>
   </si>
   <si>
-    <t>pagi</t>
-  </si>
-  <si>
-    <t>20/06/2022_PAGI_9</t>
+    <t>jadwal(sore)</t>
+  </si>
+  <si>
+    <t>21/06/2022_SORE_1</t>
   </si>
   <si>
     <t>1.0</t>
   </si>
   <si>
+    <t>SORE</t>
+  </si>
+  <si>
+    <t>jadwal</t>
+  </si>
+  <si>
+    <t>21/06/2022_SORE_2</t>
+  </si>
+  <si>
+    <t>21/06/2022_SORE_3</t>
+  </si>
+  <si>
+    <t>21/06/2022_SORE_4</t>
+  </si>
+  <si>
+    <t>21/06/2022_SORE_5</t>
+  </si>
+  <si>
+    <t>21/06/2022_PAGI_1</t>
+  </si>
+  <si>
     <t>PAGI</t>
   </si>
   <si>
-    <t>jadwal(sore)</t>
-  </si>
-  <si>
-    <t>sore</t>
-  </si>
-  <si>
-    <t>jadwal</t>
-  </si>
-  <si>
-    <t>17-1-2022_PAGI_1</t>
-  </si>
-  <si>
-    <t>17-1-2022_PAGI_2</t>
-  </si>
-  <si>
-    <t>17-1-2022_PAGI_3</t>
-  </si>
-  <si>
-    <t>17-1-2022_PAGI_4</t>
-  </si>
-  <si>
-    <t>17-1-2022_SORE_6</t>
-  </si>
-  <si>
-    <t>17-1-2022_SORE_7</t>
-  </si>
-  <si>
-    <t>queue</t>
+    <t>status</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>baru</t>
   </si>
   <si>
     <t>2.0</t>
@@ -124,31 +133,24 @@
     <t>3.0</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>8.0</t>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>demo@com</t>
+  </si>
+  <si>
+    <t>fe01ce2a7fbac8fafaed7c982a04e229</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -186,6 +188,66 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -193,8 +255,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +266,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,58 +287,28 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -283,44 +323,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -337,25 +339,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,13 +417,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,13 +447,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,37 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,7 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,67 +519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,41 +533,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,11 +566,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,153 +624,151 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -774,10 +776,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1130,7 +1131,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1141,15 +1142,15 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="4"/>
+      <c r="C3" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1163,7 +1164,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1210,6 +1211,23 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1219,10 +1237,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15" outlineLevelCol="6"/>
@@ -1247,135 +1265,9 @@
       <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1386,13 +1278,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="4" max="4" customWidth="true" width="12.3676470588235"/>
   </cols>
@@ -1408,119 +1300,35 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.0</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1532,13 +1340,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="16.0"/>
     <col min="2" max="2" customWidth="true" width="13.7132352941176"/>
@@ -1556,104 +1364,370 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="2">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>31</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>1233</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D27" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1666,57 +1740,28 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88970588235294" defaultRowHeight="15.15"/>
+  <sheetFormatPr defaultColWidth="8.88970588235294" defaultRowHeight="15.15" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/data.xlsx
+++ b/bin/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="57">
   <si>
     <t>id_admin</t>
   </si>
@@ -140,6 +140,57 @@
   </si>
   <si>
     <t>fe01ce2a7fbac8fafaed7c982a04e229</t>
+  </si>
+  <si>
+    <t>3_PASIEN</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>098f6bcd4621d373cade4e832627b4f6</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>4_PASIEN</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>5_PASIEN</t>
+  </si>
+  <si>
+    <t>bisa</t>
+  </si>
+  <si>
+    <t>bisa@com</t>
+  </si>
+  <si>
+    <t>8cfff3c034ab00b49315b4f37507230d</t>
+  </si>
+  <si>
+    <t>1_PASIEN</t>
+  </si>
+  <si>
+    <t>22/06/2022_PAGI_1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>22/06/2022_PAGI_2</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1215,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1192,40 +1243,6 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1295,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C$1:C$1048576"/>
@@ -1303,34 +1320,6 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1340,7 +1329,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:D6"/>
@@ -1367,370 +1356,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1740,7 +1365,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -1754,14 +1379,6 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/data.xlsx
+++ b/bin/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20705" windowHeight="8185" activeTab="5"/>
+    <workbookView windowWidth="20705" windowHeight="7457" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>id_admin</t>
   </si>
@@ -52,18 +52,6 @@
     <t>alamat</t>
   </si>
   <si>
-    <t>UserTest</t>
-  </si>
-  <si>
-    <t>user@com</t>
-  </si>
-  <si>
-    <t>ee11cbb19052e40b07aac0ca060c23ee</t>
-  </si>
-  <si>
-    <t>JOGJA</t>
-  </si>
-  <si>
     <t>id_antrean</t>
   </si>
   <si>
@@ -79,118 +67,13 @@
     <t>jadwal(sore)</t>
   </si>
   <si>
-    <t>21/06/2022_SORE_1</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>SORE</t>
-  </si>
-  <si>
     <t>jadwal</t>
   </si>
   <si>
-    <t>21/06/2022_SORE_2</t>
-  </si>
-  <si>
-    <t>21/06/2022_SORE_3</t>
-  </si>
-  <si>
-    <t>21/06/2022_SORE_4</t>
-  </si>
-  <si>
-    <t>21/06/2022_SORE_5</t>
-  </si>
-  <si>
-    <t>21/06/2022_PAGI_1</t>
-  </si>
-  <si>
-    <t>PAGI</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
     <t>no</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>baru</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>demo</t>
-  </si>
-  <si>
-    <t>demo@com</t>
-  </si>
-  <si>
-    <t>fe01ce2a7fbac8fafaed7c982a04e229</t>
-  </si>
-  <si>
-    <t>3_PASIEN</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>098f6bcd4621d373cade4e832627b4f6</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>4_PASIEN</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>5_PASIEN</t>
-  </si>
-  <si>
-    <t>bisa</t>
-  </si>
-  <si>
-    <t>bisa@com</t>
-  </si>
-  <si>
-    <t>8cfff3c034ab00b49315b4f37507230d</t>
-  </si>
-  <si>
-    <t>1_PASIEN</t>
-  </si>
-  <si>
-    <t>22/06/2022_PAGI_1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>22/06/2022_PAGI_2</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
 </sst>
 </file>
@@ -200,8 +83,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -239,9 +122,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,6 +156,36 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,26 +197,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,38 +242,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,44 +257,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -390,19 +273,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,7 +435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,151 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,6 +464,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -596,8 +494,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,6 +530,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -657,169 +564,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1158,7 +1041,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1221,7 +1104,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" customWidth="true" width="19.0"/>
     <col min="3" max="3" customWidth="true" width="14.7132352941176"/>
@@ -1257,7 +1140,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15" outlineLevelCol="6"/>
@@ -1271,16 +1154,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1298,26 +1181,29 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15" outlineLevelCol="3"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="12.3676470588235"/>
+    <col min="1" max="1" customWidth="true" width="17.6029411764706"/>
+    <col min="2" max="2" customWidth="true" width="14.375"/>
+    <col min="3" max="3" customWidth="true" width="14.9264705882353"/>
+    <col min="4" max="4" customWidth="true" width="14.1544117647059"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1218,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:D6"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.15" outlineLevelCol="3"/>
@@ -1344,16 +1230,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1375,10 +1261,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
